--- a/TestData/FCCB_TBCL_ZRX_data.xlsx
+++ b/TestData/FCCB_TBCL_ZRX_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu-b\git\PageObjectModel\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E21A45-DE89-4E39-BD8A-F862D4A5429C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60760140-31A2-4D38-AC3C-0E3BD1862242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="7950" windowWidth="21600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -69,6 +66,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>liu-b:</t>
@@ -78,6 +76,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -116,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="278">
   <si>
     <t>fbbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,186 +493,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ywx_drbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_jmbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_zdjsclcph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_xszcz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_cph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_cjh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_hpds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_fdjh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_syxz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_syxz_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_cpxh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_hdzzl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_hdzkrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_qtsm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_zdjscllx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_zdjscllx2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意外险-保障概要信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_bz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_zydldm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_zygzdm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_mrtbfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_xbdm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_jrbe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_bxje</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_bffl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_dqflbz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_ysbf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_bbxzrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_xsfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_aqx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_glsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_xbns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_szfhjwtyxm</t>
-  </si>
-  <si>
-    <t>ywx_ddq</t>
-  </si>
-  <si>
-    <t>ywx_xx</t>
-  </si>
-  <si>
-    <t>ywx_bj</t>
-  </si>
-  <si>
-    <t>北京市小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ywx_xsqy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教委统一项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京是朝阳区花家地小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一年级三班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1137001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>500000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,17 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ywx_tbzrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>FCCB_TB_YWX_1254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>非车承保-意外险-道路危险货物承运人责任险-出单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,22 +529,660 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>06201901137202000000000647</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知异常java.net.SocketTimeoutException: timeout
-Build info: version: '3.9.0', revision: '698b3178f0', time: '2018-02-05T14:26:55.441Z'
-System info: host: 'DESKTOP-I9S3ABE', ip: '100.100.96.41', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
-Driver info: driver.version: RemoteWebDriver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>FCCB_TB_ZRX_1254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非车承保-意外险-道路客运承运人责任险-出单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrxbdjc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fxzzrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任险-保障概要信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzfwlx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hydl</t>
+  </si>
+  <si>
+    <t>hyxl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_tblx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_wpmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期航运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_ysfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_yscs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_qdys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_cphm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_cpxh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_fdjh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_cjhm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_ccdjrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_qtxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_yycs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_yyxz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_zrfw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_nysl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_yfsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh_yscx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险货物物品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">危险货物运输地区范围 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京NR8666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V123456679</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v12345687898765647</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">营业场所  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在途临时仓储保险责任范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油罐车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1254001</t>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_yyLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_yyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_jyxkz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_ssqk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_cpxh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_cphm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_ckzws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_yyzbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_tbzws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_xszcz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_cllx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyr_cjh</t>
+  </si>
+  <si>
+    <t>cyr_zcrq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市公共汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路运输经营许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前三年损失情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅赛德斯-奔驰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京RTS818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222333444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶证车主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">车辆类型 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1234567890876543</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20080801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1268001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCCB_TB_ZRX_1268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tk_tkdm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tk_tkxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9969</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本保单承保车辆为危险品运输车辆，不承保非危险品运输车辆的相关责任。出险时危险品运输车辆必需的相关证件（如危险品运输许可证）已过期或无法提供，则保险公司不予赔付。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本保单承保车辆为合法运营，出险时若相关证件（通勤车提供有效期内的行驶证、营运车辆提供有效期内的行驶证及营运证）已过期或无法提供，则保险公司不予赔付。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本保单每次事故绝对免赔额为1000元或损失金额的10%，两者以高者为准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjx_xbdm1</t>
+  </si>
+  <si>
+    <t>fjx_jrbe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjx_bxje1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjx_bxfl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjx_dqflbz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fjx_ysbf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1254003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加险1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任险1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xbdm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_bxje1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_jrbe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_bffl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_dqflbz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_ysbf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzmp1_dm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzmp1_sz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzmp1_fl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzmp1_bz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzmp1_dm2</t>
+  </si>
+  <si>
+    <t>zrx_xzmp1_sz2</t>
+  </si>
+  <si>
+    <t>zrx_xzmp1_fl2</t>
+  </si>
+  <si>
+    <t>zrx_xzmp1_bz2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzxe1_lx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzxe1_dm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzxe1_bz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzxe1_xe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzxe1_rmk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzxe1_dm2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe1_lx2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe1_bz2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe1_xe2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe1_rmk2</t>
+  </si>
+  <si>
+    <t>0123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEIZHU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xbdm2</t>
+  </si>
+  <si>
+    <t>zrx_jrbe2</t>
+  </si>
+  <si>
+    <t>zrx_bxje2</t>
+  </si>
+  <si>
+    <t>zrx_ysbf2</t>
+  </si>
+  <si>
+    <t>zrx_xzmp2_fl2</t>
+  </si>
+  <si>
+    <t>zrx_xzmp2_bz1</t>
+  </si>
+  <si>
+    <t>zrx_xzmp2_dm2</t>
+  </si>
+  <si>
+    <t>zrx_xzmp2_sz2</t>
+  </si>
+  <si>
+    <t>zrx_xzmp2_bz2</t>
+  </si>
+  <si>
+    <t>zrx_bffl2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_dqflbz2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzmp2_dm1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzmp2_sz1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzmp2_fl1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_xzxe2_dm1</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_bz1</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_xe1</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_rmk1</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_dm2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_lx2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_bz2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_xe2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_rmk2</t>
+  </si>
+  <si>
+    <t>zrx_xzxe2_lx1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任险2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEIZHU1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,000.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201901268202000000000452</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201901254202000000000035</t>
+  </si>
+  <si>
+    <t>500,000.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEIZHU2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1254002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次事故绝对免赔额 1000   元。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_jbbf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zrx_jbbf2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06201901254202000000000038</t>
+  </si>
+  <si>
+    <t>06201901254202000000000040</t>
+  </si>
+  <si>
+    <t>06201901254202000000000041</t>
+  </si>
+  <si>
+    <t>06201901254202000000000042</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -752,7 +1202,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,19 +1217,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -874,7 +1310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -893,16 +1329,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1186,202 +1624,295 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB4AF2-2C99-459C-9147-AD7590C3225D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:DI3"/>
+  <dimension ref="A1:FN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="DW1" workbookViewId="0">
+      <selection activeCell="DW3" sqref="DW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="48.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="14.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.25" style="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="8.75" style="1" collapsed="1"/>
-    <col min="18" max="18" width="20.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="22" width="19.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.75" style="1" collapsed="1"/>
-    <col min="24" max="24" width="12.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="27" width="8.75" style="1" collapsed="1"/>
-    <col min="28" max="28" width="16.625" style="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="45" width="8.75" style="1" collapsed="1"/>
-    <col min="46" max="46" width="20.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="23.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="51" width="8.75" style="1" collapsed="1"/>
-    <col min="52" max="52" width="15.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="56" width="8.75" style="1" collapsed="1"/>
-    <col min="57" max="59" width="8.75" style="7" collapsed="1"/>
-    <col min="60" max="61" width="8.75" style="1" collapsed="1"/>
-    <col min="62" max="62" width="15.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="8.75" style="1" collapsed="1"/>
-    <col min="64" max="64" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="16.875" style="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="15.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="34" style="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="70" width="8.75" style="1" collapsed="1"/>
-    <col min="71" max="71" width="15.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="73" width="8.75" style="1" collapsed="1"/>
-    <col min="74" max="76" width="11.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="86" width="15.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="16.75" style="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="91" width="8.75" style="1" collapsed="1"/>
-    <col min="92" max="92" width="12.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="98" width="8.75" style="1" collapsed="1"/>
-    <col min="99" max="104" width="23.375" style="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="109" width="8.75" style="1" collapsed="1"/>
-    <col min="110" max="110" width="20.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="38.125" style="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="16384" width="8.75" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="23.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="48.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="9.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="12.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="8.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="11.625" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" style="1" width="14.75" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="18.25" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="25.75" collapsed="true"/>
+    <col min="16" max="17" style="1" width="8.75" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="19" max="22" customWidth="true" style="1" width="19.5" collapsed="true"/>
+    <col min="23" max="23" style="1" width="8.75" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="12.625" collapsed="true"/>
+    <col min="25" max="27" style="1" width="8.75" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="1" width="16.625" collapsed="true"/>
+    <col min="29" max="45" style="1" width="8.75" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="1" width="20.375" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="1" width="23.375" collapsed="true"/>
+    <col min="48" max="51" style="1" width="8.75" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" style="1" width="15.5" collapsed="true"/>
+    <col min="53" max="56" style="1" width="8.75" collapsed="true"/>
+    <col min="57" max="59" style="7" width="8.75" collapsed="true"/>
+    <col min="60" max="61" style="1" width="8.75" collapsed="true"/>
+    <col min="62" max="65" customWidth="true" style="1" width="15.875" collapsed="true"/>
+    <col min="66" max="68" style="1" width="8.75" collapsed="true"/>
+    <col min="69" max="69" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="70" max="70" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="71" max="72" style="1" width="8.75" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="1" width="13.25" collapsed="true"/>
+    <col min="74" max="75" style="1" width="8.75" collapsed="true"/>
+    <col min="76" max="76" customWidth="true" style="1" width="20.125" collapsed="true"/>
+    <col min="77" max="80" style="1" width="8.75" collapsed="true"/>
+    <col min="81" max="81" customWidth="true" style="1" width="29.875" collapsed="true"/>
+    <col min="82" max="82" customWidth="true" style="1" width="20.625" collapsed="true"/>
+    <col min="83" max="83" style="1" width="8.75" collapsed="true"/>
+    <col min="84" max="88" customWidth="true" style="1" width="12.125" collapsed="true"/>
+    <col min="89" max="89" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="90" max="97" customWidth="true" style="1" width="12.125" collapsed="true"/>
+    <col min="98" max="98" customWidth="true" style="1" width="16.25" collapsed="true"/>
+    <col min="99" max="99" customWidth="true" style="1" width="14.625" collapsed="true"/>
+    <col min="100" max="100" customWidth="true" style="1" width="13.875" collapsed="true"/>
+    <col min="101" max="102" style="1" width="8.75" collapsed="true"/>
+    <col min="103" max="103" style="1" width="8.75" collapsed="true"/>
+    <col min="104" max="104" customWidth="true" style="1" width="11.875" collapsed="true"/>
+    <col min="105" max="105" customWidth="true" style="1" width="17.75" collapsed="true"/>
+    <col min="106" max="106" customWidth="true" style="1" width="16.875" collapsed="true"/>
+    <col min="107" max="107" customWidth="true" style="1" width="16.375" collapsed="true"/>
+    <col min="108" max="108" customWidth="true" style="1" width="18.5" collapsed="true"/>
+    <col min="109" max="109" customWidth="true" style="1" width="23.125" collapsed="true"/>
+    <col min="110" max="110" customWidth="true" style="1" width="25.75" collapsed="true"/>
+    <col min="111" max="111" customWidth="true" style="1" width="22.75" collapsed="true"/>
+    <col min="112" max="112" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="113" max="113" customWidth="true" style="1" width="18.25" collapsed="true"/>
+    <col min="114" max="114" customWidth="true" style="1" width="15.625" collapsed="true"/>
+    <col min="115" max="115" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="116" max="116" customWidth="true" style="1" width="13.5" collapsed="true"/>
+    <col min="117" max="117" customWidth="true" style="1" width="18.25" collapsed="true"/>
+    <col min="118" max="121" customWidth="true" style="1" width="13.5" collapsed="true"/>
+    <col min="122" max="127" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="128" max="128" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="129" max="147" customWidth="true" style="1" width="19.125" collapsed="true"/>
+    <col min="148" max="148" customWidth="true" style="1" width="12.25" collapsed="true"/>
+    <col min="149" max="152" style="1" width="8.75" collapsed="true"/>
+    <col min="153" max="153" customWidth="true" style="1" width="15.75" collapsed="true"/>
+    <col min="154" max="154" style="1" width="8.75" collapsed="true"/>
+    <col min="155" max="155" customWidth="true" style="1" width="25.25" collapsed="true"/>
+    <col min="156" max="161" customWidth="true" style="1" width="23.375" collapsed="true"/>
+    <col min="162" max="166" style="1" width="8.75" collapsed="true"/>
+    <col min="167" max="167" customWidth="true" style="1" width="20.125" collapsed="true"/>
+    <col min="168" max="168" customWidth="true" style="1" width="38.125" collapsed="true"/>
+    <col min="169" max="16384" style="1" width="8.75" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:170">
+      <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
       <c r="X1" s="5"/>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
       <c r="AK1" s="5"/>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13" t="s">
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="14"/>
+      <c r="AW1" s="14"/>
+      <c r="AX1" s="14"/>
+      <c r="AY1" s="14"/>
+      <c r="AZ1" s="14"/>
+      <c r="BA1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="CK1" s="11"/>
-      <c r="CL1" s="11"/>
-      <c r="CM1" s="11"/>
-      <c r="CN1" s="11"/>
-      <c r="CO1" s="11"/>
-      <c r="CP1" s="11"/>
-      <c r="CQ1" s="11"/>
-      <c r="CR1" s="11"/>
-      <c r="CS1" s="11"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="10" t="s">
+      <c r="BB1" s="14"/>
+      <c r="BC1" s="14"/>
+      <c r="BD1" s="14"/>
+      <c r="BE1" s="14"/>
+      <c r="BF1" s="14"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="14"/>
+      <c r="BI1" s="14"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="14"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="14"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="14"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="14"/>
+      <c r="BT1" s="14"/>
+      <c r="BU1" s="14"/>
+      <c r="BV1" s="14"/>
+      <c r="BW1" s="14"/>
+      <c r="BX1" s="14"/>
+      <c r="BY1" s="14"/>
+      <c r="BZ1" s="14"/>
+      <c r="CA1" s="14"/>
+      <c r="CB1" s="14"/>
+      <c r="CC1" s="14"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="14"/>
+      <c r="CF1" s="14"/>
+      <c r="CG1" s="14"/>
+      <c r="CH1" s="14"/>
+      <c r="CI1" s="14"/>
+      <c r="CJ1" s="14"/>
+      <c r="CK1" s="14"/>
+      <c r="CL1" s="14"/>
+      <c r="CM1" s="14"/>
+      <c r="CN1" s="14"/>
+      <c r="CO1" s="14"/>
+      <c r="CP1" s="14"/>
+      <c r="CQ1" s="14"/>
+      <c r="CR1" s="14"/>
+      <c r="CS1" s="14"/>
+      <c r="CT1" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="15"/>
+      <c r="DS1" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="15"/>
+      <c r="ER1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="15"/>
+      <c r="EX1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="EY1" s="15"/>
+      <c r="EZ1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="CV1" s="11"/>
-      <c r="CW1" s="11"/>
-      <c r="CX1" s="11"/>
-      <c r="CY1" s="11"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="10" t="s">
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="15"/>
+      <c r="FF1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="DB1" s="11"/>
-      <c r="DC1" s="11"/>
-      <c r="DD1" s="11"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="8" t="s">
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="15"/>
+      <c r="FK1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="DG1" s="10" t="s">
+      <c r="FL1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="DH1" s="11"/>
-      <c r="DI1" s="11"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
     </row>
-    <row r="2" spans="1:113" ht="15" customHeight="1">
+    <row r="2" spans="1:170" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -1566,180 +2097,351 @@
         <v>61</v>
       </c>
       <c r="BJ2" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="BK2" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="BL2" s="4" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="BM2" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="BN2" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="BO2" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="BP2" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="BQ2" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="BR2" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="BS2" s="4" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="BT2" s="4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="BU2" s="4" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="BV2" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="BW2" s="4" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="BX2" s="4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="BY2" s="4" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="BZ2" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CA2" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="CB2" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CC2" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CD2" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CE2" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CF2" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="CG2" s="4" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="CH2" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="CI2" s="4" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="CJ2" s="4" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="CK2" s="4" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="CL2" s="4" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="CM2" s="4" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="CN2" s="4" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="CO2" s="4" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="CP2" s="4" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="CQ2" s="4" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="CR2" s="4" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="CS2" s="4" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="CT2" s="4" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="CU2" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="CV2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="CW2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="CX2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CY2" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="CZ2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DA2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DB2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="DC2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="DD2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="DE2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="DF2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="DG2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="DH2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="DI2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="DJ2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="DK2" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="DL2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="DM2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DN2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="DO2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="DP2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="DQ2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="DR2" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="DS2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="DT2" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="DU2" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="DV2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="DW2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="DX2" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="DY2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="DZ2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="EA2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="EB2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="EC2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="ED2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="EE2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="EF2" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="EG2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="EI2" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="EJ2" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="EK2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="EL2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="EM2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="EN2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="EO2" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="EP2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="EQ2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="ER2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="ES2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="ET2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="EU2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="EV2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="EW2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="EX2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="EY2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="EZ2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CV2" s="4" t="s">
+      <c r="FA2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CW2" s="4" t="s">
+      <c r="FB2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CX2" s="4" t="s">
+      <c r="FC2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CY2" s="4" t="s">
+      <c r="FD2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CZ2" s="4" t="s">
+      <c r="FE2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="DA2" s="4" t="s">
+      <c r="FF2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="DB2" s="4" t="s">
+      <c r="FG2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="DC2" s="4" t="s">
+      <c r="FH2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="DD2" s="4" t="s">
+      <c r="FI2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="DE2" s="4" t="s">
+      <c r="FJ2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="DF2" s="4" t="s">
+      <c r="FK2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="DG2" s="4" t="s">
+      <c r="FL2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="DH2" s="4" t="s">
+      <c r="FM2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="DI2" s="4" t="s">
+      <c r="FN2" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:113">
+    <row r="3" spans="1:170">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
@@ -1772,7 +2474,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -1821,9 +2523,7 @@
         <v>21</v>
       </c>
       <c r="BF3" s="2"/>
-      <c r="BG3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="BG3" s="2"/>
       <c r="BH3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1831,125 +2531,572 @@
         <v>86</v>
       </c>
       <c r="BJ3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="BK3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="BL3" s="2"/>
       <c r="BM3" s="2"/>
       <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
+      <c r="BO3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY3" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="BZ3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CC3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
+      <c r="CS3" s="10"/>
+      <c r="CT3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CU3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="CA3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="CB3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CC3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="CD3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="CE3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="CH3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CI3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="CJ3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="CK3" s="2"/>
-      <c r="CL3" s="2"/>
-      <c r="CM3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CN3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CO3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="CP3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CQ3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="CR3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CS3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="CT3" s="2"/>
-      <c r="CU3" s="2"/>
-      <c r="CV3" s="2"/>
-      <c r="CW3" s="2"/>
-      <c r="CX3" s="2"/>
+      <c r="CV3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX3" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="CY3" s="2"/>
       <c r="CZ3" s="2"/>
       <c r="DA3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="DB3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DC3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD3" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="DE3" s="2"/>
+      <c r="DF3" s="2"/>
+      <c r="DG3" s="2"/>
+      <c r="DH3" s="2"/>
+      <c r="DI3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DJ3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="DB3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="2" t="s">
+      <c r="DK3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="DL3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DM3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="DN3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="DO3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DQ3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="DR3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="DS3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="DT3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="DU3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="DV3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="DW3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX3" s="2"/>
+      <c r="DY3" s="2"/>
+      <c r="DZ3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EA3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB3" s="2"/>
+      <c r="EC3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="ED3" s="2"/>
+      <c r="EE3" s="2"/>
+      <c r="EF3" s="2"/>
+      <c r="EG3" s="2"/>
+      <c r="EH3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="EI3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EJ3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="EK3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="EL3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="EM3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="EN3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="EO3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="EP3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="EQ3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="ES3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="ET3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="EU3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="EV3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="EW3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="EX3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="EY3" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="EZ3" s="2"/>
+      <c r="FA3" s="2"/>
+      <c r="FB3" s="2"/>
+      <c r="FC3" s="2"/>
+      <c r="FD3" s="2"/>
+      <c r="FE3" s="2"/>
+      <c r="FF3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="FH3" s="2"/>
+      <c r="FI3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="FJ3" s="2"/>
+      <c r="FK3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="FL3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="FM3" s="2"/>
+      <c r="FN3" s="2"/>
+    </row>
+    <row r="4" spans="1:170">
+      <c r="A4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="DE3" s="2"/>
-      <c r="DF3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="DG3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="DH3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="DI3" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="CH4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="CJ4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="CK4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL4" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="CM4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="CN4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="CO4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="CP4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="CQ4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CR4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="CS4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="CT4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="CU4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="CV4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="CX4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="DB4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="DC4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="DD4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DE4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DF4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DG4" s="2"/>
+      <c r="DH4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="DI4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DJ4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DK4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="DL4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="DM4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4" s="2"/>
+      <c r="DT4" s="2"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4" s="2"/>
+      <c r="DW4" s="2"/>
+      <c r="DX4" s="2"/>
+      <c r="DY4" s="2"/>
+      <c r="DZ4" s="2"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4" s="2"/>
+      <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4" s="2"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4" s="2"/>
+      <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4" s="2"/>
+      <c r="ER4" s="2"/>
+      <c r="ES4" s="2"/>
+      <c r="ET4" s="2"/>
+      <c r="EU4" s="2"/>
+      <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="EY4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="EZ4" s="2"/>
+      <c r="FA4" s="2"/>
+      <c r="FB4" s="2"/>
+      <c r="FC4" s="2"/>
+      <c r="FD4" s="2"/>
+      <c r="FE4" s="2"/>
+      <c r="FF4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="FG4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="FH4" s="2"/>
+      <c r="FI4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="FJ4" s="2"/>
+      <c r="FK4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="FL4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="FM4" s="2"/>
+      <c r="FN4" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="DG1:DI1"/>
-    <mergeCell ref="CO1:CT1"/>
-    <mergeCell ref="BA1:CI1"/>
+  <mergeCells count="15">
+    <mergeCell ref="FL1:FN1"/>
+    <mergeCell ref="BA1:BN1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:M1"/>
     <mergeCell ref="N1:W1"/>
     <mergeCell ref="Y1:AJ1"/>
     <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="DA1:DE1"/>
-    <mergeCell ref="CU1:CZ1"/>
-    <mergeCell ref="CJ1:CN1"/>
+    <mergeCell ref="FF1:FJ1"/>
+    <mergeCell ref="EZ1:FE1"/>
+    <mergeCell ref="BO1:CF1"/>
+    <mergeCell ref="CG1:CS1"/>
+    <mergeCell ref="EX1:EY1"/>
+    <mergeCell ref="ER1:EW1"/>
+    <mergeCell ref="CT1:DR1"/>
+    <mergeCell ref="DS1:EQ1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
